--- a/output/fit_clients/fit_round_24.xlsx
+++ b/output/fit_clients/fit_round_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9750580972.642246</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00475121406023249</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.394245243650609</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8957627060779123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.394245243650609</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5756238546.538299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004791456733571906</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.242348555377026</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9505231573525507</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.242348555377026</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5054907174.363043</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002888762052402588</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.917115652592163</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.005033319966608</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.917115652592163</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3310903972.891979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003578642517084939</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.913798090069315</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.19238301656212</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11075438319436</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.19238301656212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7268747706.074897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002138449221983792</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.157224593794935</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8546828524623954</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.157224593794935</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6326543894.235003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001203114460620984</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.928930456547415</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9997586015653337</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.928930456547415</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6511224875.894291</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003040931600198332</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.808501226033392</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9732809881519183</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.808501226033392</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6810676944.723231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004076516501147361</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.220755896826631</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9726312315145261</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-8.220755896826631</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3925629642.806132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005234881338789235</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.238911431398711</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9790213375751626</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-4.238911431398711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3303764937.361858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001077466734868166</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.016755393353694</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7349407780135127</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.016755393353694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8532929612.40716</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001783252662131945</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.360274193936371</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.003556903462838</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.360274193936371</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4122172258.138902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003416312993261728</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4169048818470601</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.039981732048242</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.8008351007291611</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.039981732048242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6754330724.632369</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003082439693165697</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.509318152712882</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8650161224066063</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.509318152712882</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6889938723.602545</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004326809356125842</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1297797624660205</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.097375847109108</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2479340553182369</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.097375847109108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6058552458.599501</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005201907501707513</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9171950239773247</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.905777298418964</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.212971054127212</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.905777298418964</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6559282539.1555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00220221873480228</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.879176451609954</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9955187045618415</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.879176451609954</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4866903991.752936</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008663367115731073</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.304895393822452</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.004718761421746</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.304895393822452</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3065558221.845372</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002374752571107371</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9625185036674091</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.524559909549239</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.250279552980061</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.524559909549239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5273937783.23048</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001403886847907401</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.205197613149981</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.83186538326754</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.205197613149981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8040074722.725619</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004765436790741483</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.23745644489748</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8049844831717309</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.23745644489748</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4750896997.483285</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004605499869738646</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6643158115044571</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.063743559155528</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9829462545289757</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.063743559155528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>9020245249.261034</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001570141868461217</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.453753910631973</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8855545808569592</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.453753910631973</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6054727452.992773</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00373371607048106</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.2493191707777756</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.006874303260195</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.632352216037112</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-5.006874303260195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5808341341.205508</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003317513093779314</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.897113109632919</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.923779105482155</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.897113109632919</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5442947650.980379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001084740384947068</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8245603675556649</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.102692084359182</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.034312543173404</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.102692084359182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7392569146.844424</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002977292375915369</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.860827105513311</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9441593096223966</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.860827105513311</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7645275294.163553</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004980132346899933</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.29785481779343</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.860479695543266</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.29785481779343</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6622060948.089562</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001419766739742197</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.005140156240969</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.018930033081446</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.005140156240969</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8383242571.830797</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003520205980140549</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.388597535366541</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.878360552546429</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.388597535366541</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6985503313.305217</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003014140274339257</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.591745033818045</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9611415739393377</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.591745033818045</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3225837178.629226</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001086651899529827</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.123861059775247</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9396685754430952</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.123861059775247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7068313299.176117</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002167658718694576</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.362090011861515</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8569124034787765</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.362090011861515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7704494815.593764</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005234938399224377</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6333111971992759</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>6.10704642751171</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8895183201457262</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-6.10704642751171</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4733826687.359286</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.00241798861128699</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.893834930554023</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9754515708294629</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.893834930554023</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6068856983.452612</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003440774592676197</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.833380589854237</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.018512562086507</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.833380589854237</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5638202715.14098</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005480758285170932</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.691801709490961</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.009438230258624</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.691801709490961</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3499198394.922812</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005078052971836261</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.186187529224766</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9370778846228891</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.186187529224766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4455644697.884211</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.001996688741208345</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.154443854969198</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.925041170321806</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-6.154443854969198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6388527851.577503</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003640367728836829</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.458318116526747</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.011951579390382</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.458318116526747</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6614386853.936061</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001224477981019908</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.857762215578038</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.916885042040895</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.857762215578038</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6676955818.07788</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005234346176851467</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.165791948066101</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.007762982431536</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.165791948066101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5660648283.91657</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003401215078438461</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.38765516818873</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.94717973213109</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.38765516818873</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5667935592.328292</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001693556441773153</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.956931285606224</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9608126458703237</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.956931285606224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5603380952.079318</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001132185834807408</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.182724609810189</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.002187273532157</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.182724609810189</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7078756642.589571</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005320414785511792</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.296174263736915</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7832807621609672</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.296174263736915</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6468454221.193341</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002033495119365588</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9058600499177955</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.753931945590595</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.198726007822564</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.753931945590595</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5192205483.522032</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002955463312273536</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8.400734079429673</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.014147066585247</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-8.400734079429673</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3660874120.290221</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004479342382810097</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.403169396736078</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8493472925321047</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.403169396736078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7684337230.768696</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003093402799705389</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.972800011679793</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.028228036685429</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.972800011679793</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4266854426.027081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.00347429580276936</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.586222073751265</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9522991045946744</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.586222073751265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6396111379.987202</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001686347298330488</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7819364880911676</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.769402731158746</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.046181024122832</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.769402731158746</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7185594969.543032</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003201902963742243</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.283058612754521</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9482955169817948</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.283058612754521</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5917646201.190228</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003634341806258335</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.191071440730371</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8202116460226327</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.191071440730371</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>9030778685.385628</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004021214961168038</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.827861729343126</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9226336722435207</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.827861729343126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6092538112.057828</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00270284760861066</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.995655961170991</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9794556409632831</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.995655961170991</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5333175084.060574</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004480269135257636</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.857405058429968</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8808890587936939</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.857405058429968</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5766596725.843312</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002834129459016895</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.122942169111605</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.799317248147204</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.122942169111605</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6032137816.269789</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004614338170425865</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.480778506340048</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8747413518098535</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.480778506340048</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3751696217.358016</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003348950048777505</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.714849475532947</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8436033924064801</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.714849475532947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6198499346.43252</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005110005671192039</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.508636674189666</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.976099450063454</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.508636674189666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4241568290.061081</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003020459048961351</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.819506187168626</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.418049601226861</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.105293003705872</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.418049601226861</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8561106476.531862</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004781574538097856</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.07098092275987833</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.798986620871486</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.2677479941479405</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.798986620871486</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5322278709.632533</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004038202868981555</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.85937180347145</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9333477109070952</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.85937180347145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7221845398.710553</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004103394046650835</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.35050383459188</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.057632369915704</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.35050383459188</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4991547372.846248</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003528388514372518</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.873072680586408</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9111001413012202</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.873072680586408</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6036713487.267467</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005794713994298897</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.440788135361897</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9605972851674923</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.440788135361897</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6277061690.473236</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.0026980147356432</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.70353159050294</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7521540045086116</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.70353159050294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4796465218.1952</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001077790164722543</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>4</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.02570690554646581</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.340882737322636</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-0.3390573930713403</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.340882737322636</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5099036568.850073</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003251286318649308</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.716606493278363</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9242393677574797</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.716606493278363</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3456219019.230356</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002775451041971633</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6545084510967298</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.913052103338214</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9377963603444035</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-5.913052103338214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7871233561.894349</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002040829839334208</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.956855112577161</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.117622693224199</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-5.956855112577161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6210460882.319188</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00144063456905478</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.941326456703439</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.011326668119742</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.941326456703439</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6527422226.356826</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005176850449622579</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.772928818586332</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.878000612516536</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.772928818586332</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6087164454.649944</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003805812634726175</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.354160214786119</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8317341085838499</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.354160214786119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6499050302.53069</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.0025946389698126</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.360277419451651</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8989457539881408</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.360277419451651</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5645407532.319603</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.00524506703033647</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.999557184938038</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.029976017134093</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.999557184938038</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5819975728.347754</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003479442029342971</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.304670026680588</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9527455892310149</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.304670026680588</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6562817817.99455</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001751823233358722</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.191163315319863</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9626830428078439</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.191163315319863</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7614374588.304559</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.00254011178487362</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.568274247442776</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9470644415576183</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.568274247442776</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5629016033.282604</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003233398605407116</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.278884313496382</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.033768920722875</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.278884313496382</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8771892411.946472</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003712548355797197</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.039056635073853</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9783753932141536</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-6.039056635073853</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8294777396.057045</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002685934831311049</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.201166058656558</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.824070368339194</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.201166058656558</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7191356462.308286</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003412161920290653</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.810029424418932</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.976099450063454</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.810029424418932</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5286771806.52437</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003128531292959782</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.777374742374551</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9385425345222294</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.777374742374551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7657163869.44208</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.0023292115601001</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1836765983213993</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.53467888534051</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.3224463969747669</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.53467888534051</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4816094478.113796</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001221451000084989</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.256132232186181</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.972406671883376</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.256132232186181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9011662235.900328</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005811444362278267</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7571780796627906</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.770168722862552</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.020724160518955</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.770168722862552</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7820709626.312118</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003709174237398848</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.942300697591996</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9486287852569227</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.942300697591996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7585202766.641897</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002786925404554651</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.766221171091508</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.4564354645876385</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.766221171091508</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5395281728.55545</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003447455748077508</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.82722141877214</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8659988674346124</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.82722141877214</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4260421955.581192</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002980679801016742</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.3608120985248168</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.592056726898705</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.7615724557957956</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.592056726898705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5692128745.066455</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001864606891341735</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.535731210744684</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.914921023844625</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.535731210744684</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5444510186.435447</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001539480674428937</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.405458747869721</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.079798842180088</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-8.405458747869721</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7886981052.962986</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001894499195194216</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.770781077712765</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9122600561500813</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.770781077712765</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9018604092.90799</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002927138008556072</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.122467265476782</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8910280889672557</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.122467265476782</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7589537558.58916</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004701972602050739</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.409134110458196</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9165402313199779</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.409134110458196</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8914664733.39362</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004131414049186643</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.653467679816173</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8634267570357426</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.653467679816173</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2549692541.5436</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.006024837011537928</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.885405352006054</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.292950472328033</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.885405352006054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5379294601.513945</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003390055207652334</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.450259448187631</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7962700505228557</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.450259448187631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7177330183.270684</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001367781172828853</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.563593429507699</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.803140434533655</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8819649017807945</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.803140434533655</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_24.xlsx
+++ b/output/fit_clients/fit_round_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9750580972.642246</v>
+        <v>2315926988.544532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00475121406023249</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+        <v>0.1101403078324524</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02939829357709547</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1157963532.173651</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5756238546.538299</v>
+        <v>2376782869.977826</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004791456733571906</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>0.115770571270417</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03224871950060318</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1188391533.165966</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5054907174.363043</v>
+        <v>4571905667.429866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002888762052402588</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1300444390784506</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03690842203899727</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2285952888.184324</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3310903972.891979</v>
+        <v>3675158563.911421</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003578642517084939</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09828214004941341</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04651274809657886</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1837579306.902628</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7268747706.074897</v>
+        <v>2322209379.054998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002138449221983792</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
+        <v>0.1432206573818099</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03921522862802018</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1161104684.035132</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6326543894.235003</v>
+        <v>1897443512.986216</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001203114460620984</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+        <v>0.07820603076397957</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03075317934852925</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>948721827.3458129</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6511224875.894291</v>
+        <v>2782179420.011283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003040931600198332</v>
-      </c>
-      <c r="G8" t="b">
+        <v>0.1659147097909786</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02174074680587555</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>6</v>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1391089745.013267</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6810676944.723231</v>
+        <v>2057804889.461976</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004076516501147361</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1264658453727963</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03450132525862303</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1028902463.090521</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3925629642.806132</v>
+        <v>5729945577.995429</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005234881338789235</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1858833327953658</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03964167039841499</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2864972944.579545</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3303764937.361858</v>
+        <v>3061284945.70297</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001077466734868166</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1723648312248707</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04528717418698318</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1530642419.778637</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8532929612.40716</v>
+        <v>2956980281.214509</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001783252662131945</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+        <v>0.1896488501869679</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03864428878111005</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1478490154.443508</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4122172258.138902</v>
+        <v>3281825856.96213</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003416312993261728</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
+        <v>0.08551813842773334</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02964505773832075</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1640913019.681196</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6754330724.632369</v>
+        <v>3409871451.475461</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003082439693165697</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
+        <v>0.1733722912426204</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03144976247039876</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1704935730.237444</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6889938723.602545</v>
+        <v>1833592544.82724</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004326809356125842</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+        <v>0.06856413964809335</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03743845269209152</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>916796433.322682</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6058552458.599501</v>
+        <v>2359250223.924876</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005201907501707513</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
+        <v>0.1152898629542437</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03115678822308264</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1179625155.128824</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6559282539.1555</v>
+        <v>4105992399.862831</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00220221873480228</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
+        <v>0.1213672873032775</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03510223333053605</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2052996229.06054</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4866903991.752936</v>
+        <v>3976365684.745375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008663367115731073</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
+        <v>0.126929882608262</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03131385772780661</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1988182801.624394</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3065558221.845372</v>
+        <v>860346967.344456</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002374752571107371</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1860859890562554</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02707193814428421</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>430173478.7270694</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5273937783.23048</v>
+        <v>2806146772.487487</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001403886847907401</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1524300625989478</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02410062229909673</v>
+      </c>
+      <c r="H20" t="b">
         <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1403073326.484624</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8040074722.725619</v>
+        <v>2656026670.952073</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004765436790741483</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
+        <v>0.07948253484837355</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04305092222340574</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1328013308.539688</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4750896997.483285</v>
+        <v>3821776611.024741</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004605499869738646</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
+        <v>0.1205487314454164</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04890658480190389</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1910888317.588989</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>9020245249.261034</v>
+        <v>1420776953.497334</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001570141868461217</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
+        <v>0.1327224767178757</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03818800726750343</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>710388475.7924935</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6054727452.992773</v>
+        <v>3336904211.569439</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00373371607048106</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1356063359996968</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03168877627950977</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1668452118.154973</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5808341341.205508</v>
+        <v>1094402279.72106</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003317513093779314</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>0.1037311471735645</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02257398020798705</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>547201181.9290726</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5442947650.980379</v>
+        <v>952228168.6294924</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001084740384947068</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.07841272375528827</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03097256098784464</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>476114044.4818952</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7392569146.844424</v>
+        <v>3638358040.776451</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002977292375915369</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
+        <v>0.1424518723394068</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02554404072495658</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1819179048.271629</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7645275294.163553</v>
+        <v>3739061690.609046</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004980132346899933</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
+        <v>0.1266287621846905</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03756914684960545</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1869530920.417914</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3982158277.766973</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1264284106635239</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03159153112001335</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
-        <v>504</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6622060948.089562</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.001419766739742197</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1991079156.827563</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8383242571.830797</v>
+        <v>1669076310.10065</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003520205980140549</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
+        <v>0.1205672459520686</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0279836361047966</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>834538154.6388489</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6985503313.305217</v>
+        <v>1059200822.476009</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003014140274339257</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
+        <v>0.08228403662201465</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03217936411104475</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>529600395.6077387</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3225837178.629226</v>
+        <v>1218552313.858239</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001086651899529827</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.0838550824700167</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02942893932274509</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>609276166.7364067</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7068313299.176117</v>
+        <v>3013086082.732667</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002167658718694576</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
+        <v>0.1679877671814961</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05445516459210668</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1506543035.658346</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7704494815.593764</v>
+        <v>983265627.4960923</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005234938399224377</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
+        <v>0.08613274267997947</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02549809092808256</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>491632854.1624902</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4733826687.359286</v>
+        <v>1209271185.412384</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00241798861128699</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
+        <v>0.08697166117304947</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04523066086133562</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>604635565.1385602</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2436990260.521213</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1680644828488788</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02884927843368179</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>6</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6068856983.452612</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.003440774592676197</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
+      <c r="J36" t="n">
+        <v>1218495157.042295</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5638202715.14098</v>
+        <v>2645379637.666684</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005480758285170932</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
+        <v>0.07790819523739932</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0418426255824642</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1322689934.656292</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3499198394.922812</v>
+        <v>1363141058.974114</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005078052971836261</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08862199075029967</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03704532768125288</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>681570597.7496672</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4455644697.884211</v>
+        <v>2067279293.570745</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001996688741208345</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1436551993553121</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03279032050413967</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1033639630.888625</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6388527851.577503</v>
+        <v>1781569886.890217</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003640367728836829</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
+        <v>0.1281525603907177</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05315743816269297</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>890784838.932928</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6614386853.936061</v>
+        <v>2257930908.85412</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001224477981019908</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1272324427982061</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04321463047169765</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1128965503.120281</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6676955818.07788</v>
+        <v>2875984412.613572</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005234346176851467</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
+        <v>0.09329717757001302</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03955750535581457</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1437992157.862272</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5660648283.91657</v>
+        <v>2650178427.707737</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003401215078438461</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1730693306252764</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02567464477874856</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1325089247.177845</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5667935592.328292</v>
+        <v>2309039691.716274</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001693556441773153</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
+        <v>0.08802946761984198</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02276930710178573</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1154520013.563297</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5603380952.079318</v>
+        <v>2120599204.96357</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001132185834807408</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1889508507382111</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03989097663450474</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1060299605.270009</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7078756642.589571</v>
+        <v>3808917413.199666</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005320414785511792</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
+        <v>0.1475627073608354</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04788195623184364</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1904458664.956622</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6468454221.193341</v>
+        <v>4389226744.095024</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002033495119365588</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.12875760168367</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05417418761112894</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2194613393.036356</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5192205483.522032</v>
+        <v>3391279557.218516</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002955463312273536</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
+        <v>0.1096843397069902</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03473693369533437</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1695639848.115219</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3660874120.290221</v>
+        <v>1367266636.556702</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004479342382810097</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.136386864469487</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03192526705681756</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>683633370.7126118</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7684337230.768696</v>
+        <v>2864837381.472613</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003093402799705389</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
+        <v>0.1172339113247206</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03274936526457362</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1432418759.971956</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4266854426.027081</v>
+        <v>1005634094.203023</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00347429580276936</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1303357000090551</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0339414953215052</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>502817129.8668412</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6396111379.987202</v>
+        <v>5136020830.973179</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001686347298330488</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
+        <v>0.131041958506983</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0594162600844561</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2568010404.875454</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7185594969.543032</v>
+        <v>3495565710.602515</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003201902963742243</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
+        <v>0.1489379129076758</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0247674718839154</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1747782853.298347</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5917646201.190228</v>
+        <v>3194113434.492927</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003634341806258335</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
+        <v>0.1034188878815058</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04772321611373405</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1597056717.830177</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>9030778685.385628</v>
+        <v>4011583574.348618</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004021214961168038</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
+        <v>0.1936110759590209</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02684407901417993</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2005791762.39079</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6092538112.057828</v>
+        <v>1205781661.819957</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00270284760861066</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
+        <v>0.111557836477675</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05230525073349908</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>602890916.3161496</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5333175084.060574</v>
+        <v>4062233616.852996</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004480269135257636</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
+        <v>0.1642184907182635</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02430070718813558</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2031116901.733981</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5766596725.843312</v>
+        <v>1288216577.412962</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002834129459016895</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1342414111133431</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03806743279577093</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>644108338.9132371</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>458</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4541882157.245794</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1253649910133179</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04651550397802696</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>6</v>
       </c>
-      <c r="D59" t="n">
-        <v>352</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6032137816.269789</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.004614338170425865</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+      <c r="J59" t="n">
+        <v>2270941028.202046</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3751696217.358016</v>
+        <v>2304557768.278573</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003348950048777505</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.161865850517754</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02339980388063034</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1152278881.388206</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6198499346.43252</v>
+        <v>2289165725.66738</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005110005671192039</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
+        <v>0.1104129723186009</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02535271120061056</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1144582910.139321</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4241568290.061081</v>
+        <v>1564789719.411101</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003020459048961351</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1511899096938273</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04456096845125257</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>782394852.2529947</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8561106476.531862</v>
+        <v>4119204986.518125</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004781574538097856</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
+        <v>0.08029348304468673</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03435839331416424</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2059602550.088339</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5322278709.632533</v>
+        <v>3797765725.79292</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004038202868981555</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1480438328197834</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0263908271159197</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1898882884.236559</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7221845398.710553</v>
+        <v>5139755714.956923</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004103394046650835</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>6</v>
+        <v>0.1275994760716496</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02200202373493363</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2569877807.82345</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4991547372.846248</v>
+        <v>4384744631.657775</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003528388514372518</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
+        <v>0.1114845330061118</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04603396951837759</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2192372309.777624</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6036713487.267467</v>
+        <v>3037951210.011734</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005794713994298897</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
+        <v>0.09160387610890414</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04883086542795399</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1518975619.825309</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6277061690.473236</v>
+        <v>5667474590.175387</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0026980147356432</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
+        <v>0.1300092740186963</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0417586254909362</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2833737391.592561</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4796465218.1952</v>
+        <v>1562742298.691684</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001077790164722543</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4</v>
+        <v>0.1719980201996354</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05181287649609021</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>781371097.5211672</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5099036568.850073</v>
+        <v>3052337056.524459</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003251286318649308</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
+        <v>0.08193704971812915</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04098331990326826</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1526168508.411077</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3456219019.230356</v>
+        <v>5354892611.237074</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002775451041971633</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1129694343096948</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03019751957027345</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2677446437.542378</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7871233561.894349</v>
+        <v>1502807481.244376</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002040829839334208</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5</v>
+        <v>0.06817075414168298</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04743665749794021</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>751403766.9665067</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6210460882.319188</v>
+        <v>3096893136.581644</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00144063456905478</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
+        <v>0.1043782582600283</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04759771648651176</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1548446555.178429</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6527422226.356826</v>
+        <v>3253234968.405438</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005176850449622579</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
+        <v>0.1440376758105643</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03058508472445559</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1626617527.454968</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6087164454.649944</v>
+        <v>2111723600.369608</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003805812634726175</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5</v>
+        <v>0.1338771199982905</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03638446860833951</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1055861753.654965</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>412</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5031212938.506146</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1112751400171287</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02856923153635781</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>5</v>
       </c>
-      <c r="D76" t="n">
-        <v>459</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6499050302.53069</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0025946389698126</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>5</v>
+      <c r="J76" t="n">
+        <v>2515606496.96292</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5645407532.319603</v>
+        <v>1604461745.371332</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00524506703033647</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
+        <v>0.1133807897607978</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02890084465849435</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>802230875.5806888</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5819975728.347754</v>
+        <v>3606435720.756337</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003479442029342971</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5</v>
+        <v>0.1173122314294466</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05623867657942696</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1803217854.065341</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6562817817.99455</v>
+        <v>1382636119.180715</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001751823233358722</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5</v>
+        <v>0.115897444367938</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03681512689643824</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>691318073.0660911</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7614374588.304559</v>
+        <v>3531942937.610791</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00254011178487362</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
+        <v>0.06886498396607259</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02424227424826682</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1765971444.803187</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5629016033.282604</v>
+        <v>5120429768.009342</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003233398605407116</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
+        <v>0.1040460040038987</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02986546431391589</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2560214888.661439</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8771892411.946472</v>
+        <v>5322442212.59319</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003712548355797197</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>4</v>
+        <v>0.1595567746243118</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02513637384443939</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2661221071.951542</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8294777396.057045</v>
+        <v>1705633613.583954</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002685934831311049</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.1096924742074733</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0331028963782826</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>852816755.1827072</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7191356462.308286</v>
+        <v>2117345417.259297</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003412161920290653</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>6</v>
+        <v>0.1104119579168933</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03458310746659185</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1058672696.220317</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5286771806.52437</v>
+        <v>3535374104.383391</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003128531292959782</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1817262047268094</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04517768944269563</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1767687171.172776</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7657163869.44208</v>
+        <v>2315749433.479603</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0023292115601001</v>
-      </c>
-      <c r="G86" t="b">
+        <v>0.1471197858701586</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02585438552551489</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>6</v>
+      <c r="J86" t="n">
+        <v>1157874788.055949</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4816094478.113796</v>
+        <v>1037390604.528846</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001221451000084989</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1375668160449869</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03376376133012569</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>518695315.9361571</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9011662235.900328</v>
+        <v>3261853782.276813</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005811444362278267</v>
-      </c>
-      <c r="G88" t="b">
+        <v>0.1425755443893369</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02877719575170089</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="H88" t="n">
-        <v>5</v>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1630926947.236995</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7820709626.312118</v>
+        <v>2451926200.323608</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003709174237398848</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>5</v>
+        <v>0.1184479473179779</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02973253813665105</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1225963178.250072</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7585202766.641897</v>
+        <v>2104289419.081305</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002786925404554651</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.1143998091594829</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03941628020233537</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1052144798.648157</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5395281728.55545</v>
+        <v>1678513860.803651</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003447455748077508</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>7</v>
+        <v>0.1711020724157534</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05126752199079045</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>839256945.2893311</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4260421955.581192</v>
+        <v>2493021053.309434</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002980679801016742</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1002028091395725</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03183413813853513</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>8</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1246510509.848467</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5692128745.066455</v>
+        <v>3794796706.454812</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001864606891341735</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>8</v>
+        <v>0.1207299788312357</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03825087706568289</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1897398366.86855</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5444510186.435447</v>
+        <v>2020047012.759597</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001539480674428937</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>8</v>
+        <v>0.1114947743520619</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03739926311989276</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1010023507.091642</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2984929501.443231</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1010014703734331</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04738769084127079</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>5</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7886981052.962986</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.001894499195194216</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>6</v>
+      <c r="J95" t="n">
+        <v>1492464751.306458</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9018604092.90799</v>
+        <v>1860309081.617625</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002927138008556072</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>7</v>
+        <v>0.08668831135568075</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04242617290341433</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>930154542.4614698</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7589537558.58916</v>
+        <v>4646064723.771432</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004701972602050739</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.1758314952297359</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01931329968238658</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>6</v>
+      <c r="I97" t="n">
+        <v>7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2323032469.961529</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8914664733.39362</v>
+        <v>2491233228.193978</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004131414049186643</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>9</v>
+        <v>0.08735635774603552</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02350641204932621</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1245616564.051164</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2549692541.5436</v>
+        <v>3245748433.21067</v>
       </c>
       <c r="F99" t="n">
-        <v>0.006024837011537928</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1244186718318702</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02175476105105105</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1622874220.21939</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5379294601.513945</v>
+        <v>2918741798.482312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003390055207652334</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1715582456174156</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02231321995375376</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1459370883.392129</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7177330183.270684</v>
+        <v>2182782010.523188</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001367781172828853</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>8</v>
+        <v>0.1875127475223539</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05100440674092523</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1091390986.053158</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_24.xlsx
+++ b/output/fit_clients/fit_round_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2315926988.544532</v>
+        <v>1884384640.018055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1101403078324524</v>
+        <v>0.1065994956399344</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02939829357709547</v>
+        <v>0.04089562843362411</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1157963532.173651</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2376782869.977826</v>
+        <v>2574462074.656979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115770571270417</v>
+        <v>0.1717356058742957</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03224871950060318</v>
+        <v>0.03583533655898213</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1188391533.165966</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4571905667.429866</v>
+        <v>4541621298.952626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1300444390784506</v>
+        <v>0.1602466501481587</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03690842203899727</v>
+        <v>0.03705619631487469</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2285952888.184324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3675158563.911421</v>
+        <v>3422461384.908455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09828214004941341</v>
+        <v>0.1065006127471207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04651274809657886</v>
+        <v>0.04341937753159134</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1837579306.902628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2322209379.054998</v>
+        <v>2148219567.391991</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1432206573818099</v>
+        <v>0.1327573123849311</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03921522862802018</v>
+        <v>0.0547163337016263</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1161104684.035132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1897443512.986216</v>
+        <v>1965981020.966969</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07820603076397957</v>
+        <v>0.07992333389428372</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03075317934852925</v>
+        <v>0.03881027306391846</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>948721827.3458129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2782179420.011283</v>
+        <v>2795532980.441465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1659147097909786</v>
+        <v>0.1472618525984324</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02174074680587555</v>
+        <v>0.02861997618948565</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1391089745.013267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2057804889.461976</v>
+        <v>1923289381.526797</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1264658453727963</v>
+        <v>0.1327142732251231</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03450132525862303</v>
+        <v>0.03376299166434184</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1028902463.090521</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5729945577.995429</v>
+        <v>3925394152.825499</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1858833327953658</v>
+        <v>0.1557464545930882</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03964167039841499</v>
+        <v>0.04896199842363088</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2864972944.579545</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3061284945.70297</v>
+        <v>3159956058.93479</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1723648312248707</v>
+        <v>0.1240829516207963</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04528717418698318</v>
+        <v>0.04762405386118912</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1530642419.778637</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2956980281.214509</v>
+        <v>2458754759.97589</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1896488501869679</v>
+        <v>0.1290350185363084</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03864428878111005</v>
+        <v>0.03533224959288356</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1478490154.443508</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3281825856.96213</v>
+        <v>3985605767.02452</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08551813842773334</v>
+        <v>0.06488731420247064</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02964505773832075</v>
+        <v>0.02227709803534354</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1640913019.681196</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3409871451.475461</v>
+        <v>3431161103.855662</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1733722912426204</v>
+        <v>0.1652640471540124</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03144976247039876</v>
+        <v>0.03988254190554698</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1704935730.237444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1833592544.82724</v>
+        <v>1138300876.718349</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06856413964809335</v>
+        <v>0.0972014985593129</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03743845269209152</v>
+        <v>0.03837756258012195</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>916796433.322682</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2359250223.924876</v>
+        <v>1908037266.142563</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1152898629542437</v>
+        <v>0.08184516381651041</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03115678822308264</v>
+        <v>0.04416222466366959</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1179625155.128824</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4105992399.862831</v>
+        <v>5111854876.386981</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1213672873032775</v>
+        <v>0.1096784252702814</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03510223333053605</v>
+        <v>0.03846388614894575</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2052996229.06054</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3976365684.745375</v>
+        <v>2725130659.362808</v>
       </c>
       <c r="F18" t="n">
-        <v>0.126929882608262</v>
+        <v>0.1463734935957275</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03131385772780661</v>
+        <v>0.02888431632156755</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1988182801.624394</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>860346967.344456</v>
+        <v>1105351392.381362</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1860859890562554</v>
+        <v>0.1881731677434674</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02707193814428421</v>
+        <v>0.02743916973201583</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>430173478.7270694</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2806146772.487487</v>
+        <v>2439218246.773337</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1524300625989478</v>
+        <v>0.1121248472221376</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02410062229909673</v>
+        <v>0.03110563980527836</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1403073326.484624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2656026670.952073</v>
+        <v>2546857148.896365</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07948253484837355</v>
+        <v>0.09780453253356601</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04305092222340574</v>
+        <v>0.04567221473573075</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1328013308.539688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3821776611.024741</v>
+        <v>3861886207.424159</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1205487314454164</v>
+        <v>0.1267853885416276</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04890658480190389</v>
+        <v>0.0439472200099545</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1910888317.588989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1420776953.497334</v>
+        <v>1111047336.067228</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1327224767178757</v>
+        <v>0.1168340705758797</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03818800726750343</v>
+        <v>0.05210661698450533</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>710388475.7924935</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3336904211.569439</v>
+        <v>3626156513.964571</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1356063359996968</v>
+        <v>0.1090009227714892</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03168877627950977</v>
+        <v>0.02284763524036772</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1668452118.154973</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1094402279.72106</v>
+        <v>1139760574.639369</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1037311471735645</v>
+        <v>0.1113578383438459</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02257398020798705</v>
+        <v>0.03060368769369935</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>547201181.9290726</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>952228168.6294924</v>
+        <v>1356884461.046519</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07841272375528827</v>
+        <v>0.09760972294839568</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03097256098784464</v>
+        <v>0.03519135054948599</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>476114044.4818952</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3638358040.776451</v>
+        <v>3678303416.715819</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1424518723394068</v>
+        <v>0.1352953738722672</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02554404072495658</v>
+        <v>0.02241272414477253</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1819179048.271629</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3739061690.609046</v>
+        <v>3587184923.620104</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1266287621846905</v>
+        <v>0.09933920102676894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03756914684960545</v>
+        <v>0.04644239513749518</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1869530920.417914</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3982158277.766973</v>
+        <v>5299826979.809607</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1264284106635239</v>
+        <v>0.1255189078836931</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03159153112001335</v>
+        <v>0.02962791841308646</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1991079156.827563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1669076310.10065</v>
+        <v>2014933391.968853</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1205672459520686</v>
+        <v>0.09574665768743605</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0279836361047966</v>
+        <v>0.02716697304890375</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>834538154.6388489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1059200822.476009</v>
+        <v>1136691023.023514</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08228403662201465</v>
+        <v>0.07694437774247896</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03217936411104475</v>
+        <v>0.04672282805683554</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>529600395.6077387</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1218552313.858239</v>
+        <v>1560479242.700471</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0838550824700167</v>
+        <v>0.09762518153768847</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02942893932274509</v>
+        <v>0.02706410351659924</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>609276166.7364067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3013086082.732667</v>
+        <v>2180584926.004966</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1679877671814961</v>
+        <v>0.1922496740645954</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05445516459210668</v>
+        <v>0.05391182918303628</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1506543035.658346</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>983265627.4960923</v>
+        <v>1292825047.957182</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08613274267997947</v>
+        <v>0.1170250245814534</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02549809092808256</v>
+        <v>0.02116908806712315</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>491632854.1624902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1209271185.412384</v>
+        <v>1355534559.961824</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08697166117304947</v>
+        <v>0.1076108355790965</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04523066086133562</v>
+        <v>0.03474345983982875</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>604635565.1385602</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2436990260.521213</v>
+        <v>2575743549.514999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1680644828488788</v>
+        <v>0.1617543896297323</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02884927843368179</v>
+        <v>0.02547874000191155</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1218495157.042295</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2645379637.666684</v>
+        <v>2299369806.110091</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07790819523739932</v>
+        <v>0.06937005466737073</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0418426255824642</v>
+        <v>0.03656552447418224</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1322689934.656292</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1363141058.974114</v>
+        <v>2023233801.574496</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08862199075029967</v>
+        <v>0.1111181928603315</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03704532768125288</v>
+        <v>0.03201438850966427</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>681570597.7496672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2067279293.570745</v>
+        <v>1653789637.819231</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1436551993553121</v>
+        <v>0.1213745622417868</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03279032050413967</v>
+        <v>0.02381328566059991</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1033639630.888625</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1781569886.890217</v>
+        <v>1669800027.508547</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1281525603907177</v>
+        <v>0.1529478006418583</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05315743816269297</v>
+        <v>0.04519758703771454</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>890784838.932928</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2257930908.85412</v>
+        <v>2494088024.153101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1272324427982061</v>
+        <v>0.140610169230546</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04321463047169765</v>
+        <v>0.04525612403163543</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1128965503.120281</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2875984412.613572</v>
+        <v>3767356859.365522</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09329717757001302</v>
+        <v>0.117340031747666</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03955750535581457</v>
+        <v>0.02900743225787857</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1437992157.862272</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2650178427.707737</v>
+        <v>2052249850.445797</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1730693306252764</v>
+        <v>0.1588445779477108</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02567464477874856</v>
+        <v>0.0166136512483804</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1325089247.177845</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2309039691.716274</v>
+        <v>1597022141.452574</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08802946761984198</v>
+        <v>0.06215264084581214</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02276930710178573</v>
+        <v>0.03011676119274254</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1154520013.563297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2120599204.96357</v>
+        <v>1858323665.458795</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1889508507382111</v>
+        <v>0.1919887888891982</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03989097663450474</v>
+        <v>0.04303947640793564</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1060299605.270009</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3808917413.199666</v>
+        <v>4062048646.460328</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1475627073608354</v>
+        <v>0.1318467530852257</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04788195623184364</v>
+        <v>0.04770520021431453</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1904458664.956622</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4389226744.095024</v>
+        <v>5109335963.315112</v>
       </c>
       <c r="F47" t="n">
-        <v>0.12875760168367</v>
+        <v>0.1574738829408746</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05417418761112894</v>
+        <v>0.03746084150035971</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2194613393.036356</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3391279557.218516</v>
+        <v>3514824482.138089</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1096843397069902</v>
+        <v>0.09581833210574454</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03473693369533437</v>
+        <v>0.03489115882415453</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1695639848.115219</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1367266636.556702</v>
+        <v>1727386531.693756</v>
       </c>
       <c r="F49" t="n">
-        <v>0.136386864469487</v>
+        <v>0.1570213768123406</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03192526705681756</v>
+        <v>0.03296013674352372</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>683633370.7126118</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2864837381.472613</v>
+        <v>3243878461.755373</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1172339113247206</v>
+        <v>0.1478515961796688</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03274936526457362</v>
+        <v>0.04820823390167163</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1432418759.971956</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1005634094.203023</v>
+        <v>1442703789.833667</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1303357000090551</v>
+        <v>0.1507223549543683</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0339414953215052</v>
+        <v>0.04456383650505154</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>502817129.8668412</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5136020830.973179</v>
+        <v>3973867668.362954</v>
       </c>
       <c r="F52" t="n">
-        <v>0.131041958506983</v>
+        <v>0.1280820095774624</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0594162600844561</v>
+        <v>0.04851219393432248</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2568010404.875454</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3495565710.602515</v>
+        <v>2546879944.073173</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1489379129076758</v>
+        <v>0.1743130794145088</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0247674718839154</v>
+        <v>0.02801486617163924</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1747782853.298347</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3194113434.492927</v>
+        <v>3987120987.86825</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1034188878815058</v>
+        <v>0.159614031054736</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04772321611373405</v>
+        <v>0.03559903676376178</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1597056717.830177</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4011583574.348618</v>
+        <v>3837093107.385178</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1936110759590209</v>
+        <v>0.148422819674794</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02684407901417993</v>
+        <v>0.0283764631994894</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2005791762.39079</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1205781661.819957</v>
+        <v>1613629433.194365</v>
       </c>
       <c r="F56" t="n">
-        <v>0.111557836477675</v>
+        <v>0.1107040922435323</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05230525073349908</v>
+        <v>0.039497517467652</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>602890916.3161496</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4062233616.852996</v>
+        <v>2895274211.990161</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1642184907182635</v>
+        <v>0.1575046211738229</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02430070718813558</v>
+        <v>0.02195401549188288</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2031116901.733981</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1288216577.412962</v>
+        <v>1371068060.183324</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1342414111133431</v>
+        <v>0.1899384788377717</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03806743279577093</v>
+        <v>0.02876321509478435</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>644108338.9132371</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4541882157.245794</v>
+        <v>4606000053.91679</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1253649910133179</v>
+        <v>0.07946463954945553</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04651550397802696</v>
+        <v>0.04106811564459211</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2270941028.202046</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2304557768.278573</v>
+        <v>3196918168.906288</v>
       </c>
       <c r="F60" t="n">
-        <v>0.161865850517754</v>
+        <v>0.1378330358552182</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02339980388063034</v>
+        <v>0.02285665834846376</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1152278881.388206</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2289165725.66738</v>
+        <v>3227690128.036274</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1104129723186009</v>
+        <v>0.1291915421044299</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02535271120061056</v>
+        <v>0.03219875364207012</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1144582910.139321</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1564789719.411101</v>
+        <v>1723629882.53356</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1511899096938273</v>
+        <v>0.192034527011523</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04456096845125257</v>
+        <v>0.04185149967419068</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>782394852.2529947</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4119204986.518125</v>
+        <v>4474665987.067197</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08029348304468673</v>
+        <v>0.08698316388635174</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03435839331416424</v>
+        <v>0.0454576505969501</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2059602550.088339</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3797765725.79292</v>
+        <v>3947507989.109195</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1480438328197834</v>
+        <v>0.1576359369559805</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0263908271159197</v>
+        <v>0.03160305611040555</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1898882884.236559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5139755714.956923</v>
+        <v>4172271981.550979</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1275994760716496</v>
+        <v>0.1438067230334948</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02200202373493363</v>
+        <v>0.02624174619955693</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2569877807.82345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4384744631.657775</v>
+        <v>4265669884.653813</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1114845330061118</v>
+        <v>0.1511294349617059</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04603396951837759</v>
+        <v>0.04599756196094053</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2192372309.777624</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3037951210.011734</v>
+        <v>2869152104.821333</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09160387610890414</v>
+        <v>0.06736088512276947</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04883086542795399</v>
+        <v>0.0484227204809444</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1518975619.825309</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5667474590.175387</v>
+        <v>5721155156.799333</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1300092740186963</v>
+        <v>0.1412785947214203</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0417586254909362</v>
+        <v>0.03225437809451427</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2833737391.592561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1562742298.691684</v>
+        <v>1772429257.583259</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1719980201996354</v>
+        <v>0.1819449174863793</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05181287649609021</v>
+        <v>0.04228393065613282</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>781371097.5211672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3052337056.524459</v>
+        <v>3385960367.511696</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08193704971812915</v>
+        <v>0.08838362193426184</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04098331990326826</v>
+        <v>0.03414362373462083</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1526168508.411077</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5354892611.237074</v>
+        <v>4155391048.337755</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1129694343096948</v>
+        <v>0.14506863700811</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03019751957027345</v>
+        <v>0.02356323480076137</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2677446437.542378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1502807481.244376</v>
+        <v>1884759557.035099</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06817075414168298</v>
+        <v>0.0866130452693526</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04743665749794021</v>
+        <v>0.04526113062528085</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>751403766.9665067</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3096893136.581644</v>
+        <v>3076479923.472113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1043782582600283</v>
+        <v>0.08452103361693156</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04759771648651176</v>
+        <v>0.03422901840681018</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1548446555.178429</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3253234968.405438</v>
+        <v>3963755760.749658</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1440376758105643</v>
+        <v>0.1368710473361946</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03058508472445559</v>
+        <v>0.03084384066050041</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1626617527.454968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2111723600.369608</v>
+        <v>1709507664.254042</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1338771199982905</v>
+        <v>0.101219469907932</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03638446860833951</v>
+        <v>0.03775728596532838</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1055861753.654965</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5031212938.506146</v>
+        <v>4634307595.83752</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1112751400171287</v>
+        <v>0.09566240739123195</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02856923153635781</v>
+        <v>0.02234642942075732</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2515606496.96292</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1604461745.371332</v>
+        <v>1786765148.522883</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1133807897607978</v>
+        <v>0.115660700458048</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02890084465849435</v>
+        <v>0.02186943968122626</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>802230875.5806888</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3606435720.756337</v>
+        <v>3935753750.222952</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1173122314294466</v>
+        <v>0.1227892795052507</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05623867657942696</v>
+        <v>0.03546025997789907</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1803217854.065341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1382636119.180715</v>
+        <v>1701828400.117744</v>
       </c>
       <c r="F79" t="n">
-        <v>0.115897444367938</v>
+        <v>0.1137012903428682</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03681512689643824</v>
+        <v>0.03680976935753864</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>691318073.0660911</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3531942937.610791</v>
+        <v>4481207320.377419</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06886498396607259</v>
+        <v>0.1103686293473763</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02424227424826682</v>
+        <v>0.03775678980628459</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1765971444.803187</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5120429768.009342</v>
+        <v>3864643462.062782</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1040460040038987</v>
+        <v>0.09046136954659323</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02986546431391589</v>
+        <v>0.02259192687942207</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2560214888.661439</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5322442212.59319</v>
+        <v>5544010747.742841</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1595567746243118</v>
+        <v>0.1325705038097486</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02513637384443939</v>
+        <v>0.02521148163451287</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2661221071.951542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1705633613.583954</v>
+        <v>2114681120.074739</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1096924742074733</v>
+        <v>0.1006405982503766</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0331028963782826</v>
+        <v>0.04373590222090384</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>852816755.1827072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2117345417.259297</v>
+        <v>1802083642.466423</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1104119579168933</v>
+        <v>0.1151249748748312</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03458310746659185</v>
+        <v>0.0351499670620678</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1058672696.220317</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3535374104.383391</v>
+        <v>3090134493.105434</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1817262047268094</v>
+        <v>0.171644265106694</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04517768944269563</v>
+        <v>0.03540652707227351</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1767687171.172776</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2315749433.479603</v>
+        <v>1851186031.311576</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1471197858701586</v>
+        <v>0.1511591049085207</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02585438552551489</v>
+        <v>0.01717312630170789</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1157874788.055949</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1037390604.528846</v>
+        <v>1373177957.434228</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1375668160449869</v>
+        <v>0.1662652823805713</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03376376133012569</v>
+        <v>0.02964135279166934</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>518695315.9361571</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3261853782.276813</v>
+        <v>3373793693.005894</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1425755443893369</v>
+        <v>0.1205392827667362</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02877719575170089</v>
+        <v>0.03018650225411201</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1630926947.236995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2451926200.323608</v>
+        <v>3508944198.477742</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1184479473179779</v>
+        <v>0.1557272431240263</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02973253813665105</v>
+        <v>0.03885432058675915</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>8</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1225963178.250072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2104289419.081305</v>
+        <v>1716394302.295248</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1143998091594829</v>
+        <v>0.1165697022839896</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03941628020233537</v>
+        <v>0.0437951922149367</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1052144798.648157</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1678513860.803651</v>
+        <v>1790507585.216705</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1711020724157534</v>
+        <v>0.1395569928295844</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05126752199079045</v>
+        <v>0.05220709954677341</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>839256945.2893311</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2493021053.309434</v>
+        <v>2272272683.733943</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1002028091395725</v>
+        <v>0.08806039174519023</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03183413813853513</v>
+        <v>0.03229023759570301</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1246510509.848467</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3794796706.454812</v>
+        <v>3696356453.393587</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1207299788312357</v>
+        <v>0.123074650693182</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03825087706568289</v>
+        <v>0.03843354649200723</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1897398366.86855</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2020047012.759597</v>
+        <v>1715926789.888348</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1114947743520619</v>
+        <v>0.1127015284667267</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03739926311989276</v>
+        <v>0.03554252033582615</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1010023507.091642</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2984929501.443231</v>
+        <v>2713481870.295654</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1010014703734331</v>
+        <v>0.1073726281109635</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04738769084127079</v>
+        <v>0.04607245911291918</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1492464751.306458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1860309081.617625</v>
+        <v>2016408408.406217</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08668831135568075</v>
+        <v>0.09013692058704577</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04242617290341433</v>
+        <v>0.03159192909188393</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>930154542.4614698</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4646064723.771432</v>
+        <v>5120673192.662801</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1758314952297359</v>
+        <v>0.109499764632766</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01931329968238658</v>
+        <v>0.02425010709618067</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2323032469.961529</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2491233228.193978</v>
+        <v>3116994991.300011</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08735635774603552</v>
+        <v>0.09803123866033792</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02350641204932621</v>
+        <v>0.02669500556538951</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1245616564.051164</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3245748433.21067</v>
+        <v>2584101362.346334</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1244186718318702</v>
+        <v>0.1149361110604025</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02175476105105105</v>
+        <v>0.03231119485802905</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1622874220.21939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2918741798.482312</v>
+        <v>3635371407.60174</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1715582456174156</v>
+        <v>0.1169257314568015</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02231321995375376</v>
+        <v>0.02114506493766373</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1459370883.392129</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2182782010.523188</v>
+        <v>3444900476.447639</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1875127475223539</v>
+        <v>0.1524032201629772</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05100440674092523</v>
+        <v>0.05413684733509655</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1091390986.053158</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_24.xlsx
+++ b/output/fit_clients/fit_round_24.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1884384640.018055</v>
+        <v>1808575641.560698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1065994956399344</v>
+        <v>0.07579129671154174</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04089562843362411</v>
+        <v>0.04419068840175291</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2574462074.656979</v>
+        <v>1668954871.735755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1717356058742957</v>
+        <v>0.155683178556576</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03583533655898213</v>
+        <v>0.03232457622717645</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4541621298.952626</v>
+        <v>4808747577.076123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1602466501481587</v>
+        <v>0.1635321502993363</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03705619631487469</v>
+        <v>0.03082060471217485</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3422461384.908455</v>
+        <v>2571727995.421408</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1065006127471207</v>
+        <v>0.08594491828642514</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04341937753159134</v>
+        <v>0.03854874529485312</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2148219567.391991</v>
+        <v>1868996641.451957</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1327573123849311</v>
+        <v>0.1060897025013166</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0547163337016263</v>
+        <v>0.05123785365386028</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1965981020.966969</v>
+        <v>2752021717.050871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07992333389428372</v>
+        <v>0.07828558187150741</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03881027306391846</v>
+        <v>0.03609698101725822</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2795532980.441465</v>
+        <v>3943447141.794188</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1472618525984324</v>
+        <v>0.2078023946644421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02861997618948565</v>
+        <v>0.03214659846206966</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1923289381.526797</v>
+        <v>2072167826.287316</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1327142732251231</v>
+        <v>0.1852501977597037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03376299166434184</v>
+        <v>0.03567402857555753</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3925394152.825499</v>
+        <v>3689950743.270301</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1557464545930882</v>
+        <v>0.1872596988409472</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04896199842363088</v>
+        <v>0.05357656280049191</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3159956058.93479</v>
+        <v>3000276002.39954</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1240829516207963</v>
+        <v>0.1778918064822401</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04762405386118912</v>
+        <v>0.03989632020205624</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2458754759.97589</v>
+        <v>3039206291.415334</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1290350185363084</v>
+        <v>0.1951222029786326</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03533224959288356</v>
+        <v>0.04224955259287518</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3985605767.02452</v>
+        <v>4832411642.818759</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06488731420247064</v>
+        <v>0.09257772882416332</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02227709803534354</v>
+        <v>0.02087323367548745</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3431161103.855662</v>
+        <v>3886567676.955351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1652640471540124</v>
+        <v>0.1160250852516139</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03988254190554698</v>
+        <v>0.0417288052003088</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1138300876.718349</v>
+        <v>1544504355.407233</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0972014985593129</v>
+        <v>0.0865042657463964</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03837756258012195</v>
+        <v>0.03396403220703628</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1908037266.142563</v>
+        <v>2665613607.077907</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08184516381651041</v>
+        <v>0.07361869775198999</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04416222466366959</v>
+        <v>0.03531691087186137</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5111854876.386981</v>
+        <v>4267105114.192095</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1096784252702814</v>
+        <v>0.1209549102055281</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03846388614894575</v>
+        <v>0.03438959238334165</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2725130659.362808</v>
+        <v>4009312725.801966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1463734935957275</v>
+        <v>0.1203961580033877</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02888431632156755</v>
+        <v>0.02613526732082241</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1105351392.381362</v>
+        <v>1122874402.270136</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1881731677434674</v>
+        <v>0.1169328017894502</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02743916973201583</v>
+        <v>0.02287680123542776</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2439218246.773337</v>
+        <v>2010397907.122915</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1121248472221376</v>
+        <v>0.1471911747446769</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03110563980527836</v>
+        <v>0.0209216565059927</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2546857148.896365</v>
+        <v>2345905575.018157</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09780453253356601</v>
+        <v>0.0725914188553294</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04567221473573075</v>
+        <v>0.02869302469601482</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3861886207.424159</v>
+        <v>2872517326.277718</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1267853885416276</v>
+        <v>0.1435369562561595</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0439472200099545</v>
+        <v>0.03969980692258779</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1111047336.067228</v>
+        <v>1106505821.329717</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1168340705758797</v>
+        <v>0.1694310088695234</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05210661698450533</v>
+        <v>0.04146767608650408</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3626156513.964571</v>
+        <v>3326599517.979174</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1090009227714892</v>
+        <v>0.1069998673400576</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02284763524036772</v>
+        <v>0.02601782345061766</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1139760574.639369</v>
+        <v>1172638521.957323</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1113578383438459</v>
+        <v>0.08899090421051233</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03060368769369935</v>
+        <v>0.02618729934182576</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1356884461.046519</v>
+        <v>1234640871.781805</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09760972294839568</v>
+        <v>0.1083258535135184</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03519135054948599</v>
+        <v>0.02613583868877173</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3678303416.715819</v>
+        <v>3765719149.861207</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1352953738722672</v>
+        <v>0.1335352259677273</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02241272414477253</v>
+        <v>0.01687195769484882</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3587184923.620104</v>
+        <v>2771471835.627259</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09933920102676894</v>
+        <v>0.1233149020840605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04644239513749518</v>
+        <v>0.04650470892868863</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5299826979.809607</v>
+        <v>3656283512.739015</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1255189078836931</v>
+        <v>0.1186077020335738</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02962791841308646</v>
+        <v>0.03305966708673397</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2014933391.968853</v>
+        <v>2192674374.618361</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09574665768743605</v>
+        <v>0.1162477897990634</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02716697304890375</v>
+        <v>0.02883024602663828</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1136691023.023514</v>
+        <v>1480424156.12526</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07694437774247896</v>
+        <v>0.1103151223202205</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04672282805683554</v>
+        <v>0.04201703920594906</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1560479242.700471</v>
+        <v>1504734302.250955</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09762518153768847</v>
+        <v>0.1084817114798808</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02706410351659924</v>
+        <v>0.0294643244273163</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2180584926.004966</v>
+        <v>2159575581.653755</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1922496740645954</v>
+        <v>0.196673842693518</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05391182918303628</v>
+        <v>0.05613489278076433</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1292825047.957182</v>
+        <v>1039843302.990303</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1170250245814534</v>
+        <v>0.1191460611848703</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02116908806712315</v>
+        <v>0.02112942451170753</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1355534559.961824</v>
+        <v>1322848127.687558</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1076108355790965</v>
+        <v>0.09545379072771945</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03474345983982875</v>
+        <v>0.04201641100664337</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2575743549.514999</v>
+        <v>2164366208.260768</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1617543896297323</v>
+        <v>0.1657759852437861</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02547874000191155</v>
+        <v>0.01787035205792002</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2299369806.110091</v>
+        <v>2817861676.72761</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06937005466737073</v>
+        <v>0.07649751502961684</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03656552447418224</v>
+        <v>0.02761687428102272</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2023233801.574496</v>
+        <v>1761462422.191246</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1111181928603315</v>
+        <v>0.1139828983020627</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03201438850966427</v>
+        <v>0.03509592095930686</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1653789637.819231</v>
+        <v>1995778786.175792</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1213745622417868</v>
+        <v>0.1465187265881062</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02381328566059991</v>
+        <v>0.02465930527104143</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1669800027.508547</v>
+        <v>1661763610.232509</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1529478006418583</v>
+        <v>0.1112102829344263</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04519758703771454</v>
+        <v>0.04693050214232515</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2494088024.153101</v>
+        <v>1765085359.891362</v>
       </c>
       <c r="F41" t="n">
-        <v>0.140610169230546</v>
+        <v>0.1617589359026511</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04525612403163543</v>
+        <v>0.03922176468559793</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3767356859.365522</v>
+        <v>4169739649.579443</v>
       </c>
       <c r="F42" t="n">
-        <v>0.117340031747666</v>
+        <v>0.0769423896029453</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02900743225787857</v>
+        <v>0.03799097120266096</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2052249850.445797</v>
+        <v>1945499683.393607</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1588445779477108</v>
+        <v>0.164667107045407</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0166136512483804</v>
+        <v>0.0251031634823882</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1597022141.452574</v>
+        <v>1684178117.8482</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06215264084581214</v>
+        <v>0.07134428794357422</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03011676119274254</v>
+        <v>0.02376275689748354</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1858323665.458795</v>
+        <v>1859270459.24835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1919887888891982</v>
+        <v>0.1758674082558642</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04303947640793564</v>
+        <v>0.04540720407862324</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4062048646.460328</v>
+        <v>5577581510.831344</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1318467530852257</v>
+        <v>0.1192283691176806</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04770520021431453</v>
+        <v>0.05463371041935534</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5109335963.315112</v>
+        <v>4468586798.931742</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1574738829408746</v>
+        <v>0.1429533144905512</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03746084150035971</v>
+        <v>0.04931380841537559</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3514824482.138089</v>
+        <v>4378611268.048006</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09581833210574454</v>
+        <v>0.08954638657958294</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03489115882415453</v>
+        <v>0.0391786076436083</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1727386531.693756</v>
+        <v>1835950246.196633</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1570213768123406</v>
+        <v>0.1528304807111132</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03296013674352372</v>
+        <v>0.04460282125349942</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3243878461.755373</v>
+        <v>3299304974.196194</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1478515961796688</v>
+        <v>0.1495736159545112</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04820823390167163</v>
+        <v>0.03982033517484442</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1442703789.833667</v>
+        <v>1506316420.555928</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1507223549543683</v>
+        <v>0.1831588084343826</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04456383650505154</v>
+        <v>0.0420081390446801</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3973867668.362954</v>
+        <v>3433277115.897324</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1280820095774624</v>
+        <v>0.09840631913512468</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04851219393432248</v>
+        <v>0.03989960972563738</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2546879944.073173</v>
+        <v>2395739428.880174</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1743130794145088</v>
+        <v>0.1662856236465668</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02801486617163924</v>
+        <v>0.02788264593013205</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3987120987.86825</v>
+        <v>3640439170.846</v>
       </c>
       <c r="F54" t="n">
-        <v>0.159614031054736</v>
+        <v>0.1120167749326392</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03559903676376178</v>
+        <v>0.04891114943031947</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3837093107.385178</v>
+        <v>3195445192.687807</v>
       </c>
       <c r="F55" t="n">
-        <v>0.148422819674794</v>
+        <v>0.2229181912622762</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0283764631994894</v>
+        <v>0.03086570172347823</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1613629433.194365</v>
+        <v>1581493058.489864</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1107040922435323</v>
+        <v>0.1416999703476826</v>
       </c>
       <c r="G56" t="n">
-        <v>0.039497517467652</v>
+        <v>0.04549748290349305</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2895274211.990161</v>
+        <v>4246248583.585477</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1575046211738229</v>
+        <v>0.1375712947708897</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02195401549188288</v>
+        <v>0.02554515727584514</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1371068060.183324</v>
+        <v>1792194893.780021</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1899384788377717</v>
+        <v>0.195967878104229</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02876321509478435</v>
+        <v>0.03394183750069255</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4606000053.91679</v>
+        <v>4383316389.427629</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07946463954945553</v>
+        <v>0.09237469713197345</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04106811564459211</v>
+        <v>0.04011728903042876</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3196918168.906288</v>
+        <v>3578850667.139169</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1378330358552182</v>
+        <v>0.1626927205477731</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02285665834846376</v>
+        <v>0.02093712983862571</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3227690128.036274</v>
+        <v>2835039125.909413</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1291915421044299</v>
+        <v>0.1283578524881296</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03219875364207012</v>
+        <v>0.0215714526253487</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1723629882.53356</v>
+        <v>1383781236.351724</v>
       </c>
       <c r="F62" t="n">
-        <v>0.192034527011523</v>
+        <v>0.1690441466657644</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04185149967419068</v>
+        <v>0.03510116710841486</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4474665987.067197</v>
+        <v>3427321138.344255</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08698316388635174</v>
+        <v>0.1008927623550879</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0454576505969501</v>
+        <v>0.03207851407922421</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3947507989.109195</v>
+        <v>5350660217.25659</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1576359369559805</v>
+        <v>0.1569316216882533</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03160305611040555</v>
+        <v>0.02831022827618086</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4172271981.550979</v>
+        <v>3911399952.864502</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1438067230334948</v>
+        <v>0.1412782176697255</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02624174619955693</v>
+        <v>0.02218303793523719</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4265669884.653813</v>
+        <v>4125587015.277485</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1511294349617059</v>
+        <v>0.1194032709022662</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04599756196094053</v>
+        <v>0.03169173418632344</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2869152104.821333</v>
+        <v>2562598631.642242</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06736088512276947</v>
+        <v>0.08779093443778863</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0484227204809444</v>
+        <v>0.04437120430821623</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5721155156.799333</v>
+        <v>5472454643.972924</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1412785947214203</v>
+        <v>0.1067418637819871</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03225437809451427</v>
+        <v>0.04772908803971927</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1772429257.583259</v>
+        <v>2359790770.88915</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1819449174863793</v>
+        <v>0.1605415098942445</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04228393065613282</v>
+        <v>0.0467409049640386</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3385960367.511696</v>
+        <v>2825354486.270014</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08838362193426184</v>
+        <v>0.09147611688827605</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03414362373462083</v>
+        <v>0.03378581602632985</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4155391048.337755</v>
+        <v>3920961071.478421</v>
       </c>
       <c r="F71" t="n">
-        <v>0.14506863700811</v>
+        <v>0.1741985290658666</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02356323480076137</v>
+        <v>0.02937838468364427</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1884759557.035099</v>
+        <v>1746184195.991412</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0866130452693526</v>
+        <v>0.09147139403694531</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04526113062528085</v>
+        <v>0.04972433631191423</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3076479923.472113</v>
+        <v>2183403546.681323</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08452103361693156</v>
+        <v>0.09013942112937968</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03422901840681018</v>
+        <v>0.04060953517916304</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3963755760.749658</v>
+        <v>4006554637.708724</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1368710473361946</v>
+        <v>0.1827538323733569</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03084384066050041</v>
+        <v>0.02586128023620557</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1709507664.254042</v>
+        <v>2243433188.433499</v>
       </c>
       <c r="F75" t="n">
-        <v>0.101219469907932</v>
+        <v>0.1135143272873431</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03775728596532838</v>
+        <v>0.03338522648922626</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4634307595.83752</v>
+        <v>3766723899.08331</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09566240739123195</v>
+        <v>0.07606693993184611</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02234642942075732</v>
+        <v>0.02576024639377503</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1786765148.522883</v>
+        <v>1392936867.622778</v>
       </c>
       <c r="F77" t="n">
-        <v>0.115660700458048</v>
+        <v>0.1481939425285599</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02186943968122626</v>
+        <v>0.03036502878004418</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3935753750.222952</v>
+        <v>3043428556.264908</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1227892795052507</v>
+        <v>0.1277309180333678</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03546025997789907</v>
+        <v>0.04274822707126711</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1701828400.117744</v>
+        <v>1730823173.772457</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1137012903428682</v>
+        <v>0.1298740321982191</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03680976935753864</v>
+        <v>0.04030242420712554</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4481207320.377419</v>
+        <v>4402191161.614795</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1103686293473763</v>
+        <v>0.07717363331845335</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03775678980628459</v>
+        <v>0.02992237057852229</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3864643462.062782</v>
+        <v>5091406953.37013</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09046136954659323</v>
+        <v>0.1309449173641336</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02259192687942207</v>
+        <v>0.02008329943568384</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5544010747.742841</v>
+        <v>4528153319.473673</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1325705038097486</v>
+        <v>0.1522564131013231</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02521148163451287</v>
+        <v>0.01845001147779415</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2114681120.074739</v>
+        <v>2240428705.468594</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1006405982503766</v>
+        <v>0.1265520075042814</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04373590222090384</v>
+        <v>0.03089728382413294</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1802083642.466423</v>
+        <v>2151373640.404757</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1151249748748312</v>
+        <v>0.09995392460865632</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0351499670620678</v>
+        <v>0.04215680898478509</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3090134493.105434</v>
+        <v>3341670205.802096</v>
       </c>
       <c r="F85" t="n">
-        <v>0.171644265106694</v>
+        <v>0.150639092097745</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03540652707227351</v>
+        <v>0.05210030576992478</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1851186031.311576</v>
+        <v>2704750320.023712</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1511591049085207</v>
+        <v>0.1696456710231838</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01717312630170789</v>
+        <v>0.01730360956320237</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1373177957.434228</v>
+        <v>1127309335.275371</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1662652823805713</v>
+        <v>0.1533605521644459</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02964135279166934</v>
+        <v>0.02919569250388763</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3373793693.005894</v>
+        <v>3239015784.241262</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1205392827667362</v>
+        <v>0.1533289882753451</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03018650225411201</v>
+        <v>0.02512830164399987</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3508944198.477742</v>
+        <v>3331617981.593067</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1557272431240263</v>
+        <v>0.1114746384157511</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03885432058675915</v>
+        <v>0.03155967263841632</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1716394302.295248</v>
+        <v>2003275471.936066</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1165697022839896</v>
+        <v>0.1165831701684425</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0437951922149367</v>
+        <v>0.03570720071909131</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1790507585.216705</v>
+        <v>1612226466.500224</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1395569928295844</v>
+        <v>0.1219644583008376</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05220709954677341</v>
+        <v>0.06022744406106753</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2272272683.733943</v>
+        <v>2894111609.906919</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08806039174519023</v>
+        <v>0.09492732915279975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03229023759570301</v>
+        <v>0.04390529462209682</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3696356453.393587</v>
+        <v>4468083347.039934</v>
       </c>
       <c r="F93" t="n">
-        <v>0.123074650693182</v>
+        <v>0.1084051242331292</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03843354649200723</v>
+        <v>0.03448764288890736</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1715926789.888348</v>
+        <v>2403641031.510262</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1127015284667267</v>
+        <v>0.1644184451671343</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03554252033582615</v>
+        <v>0.03030804286204995</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2713481870.295654</v>
+        <v>3170819199.301323</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1073726281109635</v>
+        <v>0.1040404358553294</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04607245911291918</v>
+        <v>0.03298126718369058</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2016408408.406217</v>
+        <v>1694483319.412124</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09013692058704577</v>
+        <v>0.111598775756218</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03159192909188393</v>
+        <v>0.03051436153847471</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5120673192.662801</v>
+        <v>4923244184.046143</v>
       </c>
       <c r="F97" t="n">
-        <v>0.109499764632766</v>
+        <v>0.1197866329166741</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02425010709618067</v>
+        <v>0.01974727751579999</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3116994991.300011</v>
+        <v>2679082547.8058</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09803123866033792</v>
+        <v>0.1231237451730833</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02669500556538951</v>
+        <v>0.02162685377594504</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2584101362.346334</v>
+        <v>3123974859.511917</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1149361110604025</v>
+        <v>0.1303648525825493</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03231119485802905</v>
+        <v>0.02249794293160314</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3635371407.60174</v>
+        <v>3504640774.334883</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1169257314568015</v>
+        <v>0.172646335622245</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02114506493766373</v>
+        <v>0.01706290491838679</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3444900476.447639</v>
+        <v>3362660931.963417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1524032201629772</v>
+        <v>0.1845560163280212</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05413684733509655</v>
+        <v>0.04212096032848201</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_24.xlsx
+++ b/output/fit_clients/fit_round_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1808575641.560698</v>
+        <v>1691947772.652281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07579129671154174</v>
+        <v>0.1104435195826707</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04419068840175291</v>
+        <v>0.03352052803439735</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1668954871.735755</v>
+        <v>1759369329.037055</v>
       </c>
       <c r="F3" t="n">
-        <v>0.155683178556576</v>
+        <v>0.1646266171274777</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03232457622717645</v>
+        <v>0.03165094682341807</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4808747577.076123</v>
+        <v>4488454018.730576</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1635321502993363</v>
+        <v>0.1612199013834297</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03082060471217485</v>
+        <v>0.03181080326917505</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.8895607646549</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2571727995.421408</v>
+        <v>3926052621.849294</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08594491828642514</v>
+        <v>0.09032787504837048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03854874529485312</v>
+        <v>0.03356507797387007</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1868996641.451957</v>
+        <v>2527094346.180533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1060897025013166</v>
+        <v>0.1319981185041162</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05123785365386028</v>
+        <v>0.04775534387909395</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2752021717.050871</v>
+        <v>2931682275.585304</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07828558187150741</v>
+        <v>0.09855649196183741</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03609698101725822</v>
+        <v>0.03317070812771114</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3943447141.794188</v>
+        <v>3232036690.641204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2078023946644421</v>
+        <v>0.1971219639924119</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03214659846206966</v>
+        <v>0.02200049113110629</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2072167826.287316</v>
+        <v>1715632579.833109</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1852501977597037</v>
+        <v>0.1396835252678559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03567402857555753</v>
+        <v>0.02498648363287309</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3689950743.270301</v>
+        <v>5502329549.581455</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1872596988409472</v>
+        <v>0.1374761192299657</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05357656280049191</v>
+        <v>0.04502428965756848</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.8980783965683</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3000276002.39954</v>
+        <v>3633139584.489136</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1778918064822401</v>
+        <v>0.1569994363395689</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03989632020205624</v>
+        <v>0.03290223029329624</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>23</v>
+      </c>
+      <c r="K11" t="n">
+        <v>187.1416031051245</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3039206291.415334</v>
+        <v>2358658916.937938</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1951222029786326</v>
+        <v>0.1466865309807164</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04224955259287518</v>
+        <v>0.03511722988731732</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4832411642.818759</v>
+        <v>3611670288.406269</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09257772882416332</v>
+        <v>0.08114702869668657</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02087323367548745</v>
+        <v>0.02979286454921824</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23</v>
+      </c>
+      <c r="K13" t="n">
+        <v>170.0245523527397</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3886567676.955351</v>
+        <v>3811185719.535057</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1160250852516139</v>
+        <v>0.1565870922984972</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0417288052003088</v>
+        <v>0.03382344292888331</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1544504355.407233</v>
+        <v>1432205411.812214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0865042657463964</v>
+        <v>0.08160587143605788</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03396403220703628</v>
+        <v>0.03723151672295338</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2665613607.077907</v>
+        <v>2600798083.599766</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07361869775198999</v>
+        <v>0.08815739652780158</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03531691087186137</v>
+        <v>0.03381621562354706</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4267105114.192095</v>
+        <v>4862545685.676422</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1209549102055281</v>
+        <v>0.128248404941019</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03438959238334165</v>
+        <v>0.03761337375802659</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>24</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4009312725.801966</v>
+        <v>3788438801.685077</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1203961580033877</v>
+        <v>0.1354500810188168</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02613526732082241</v>
+        <v>0.02661831585424357</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1122874402.270136</v>
+        <v>1296137583.520377</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1169328017894502</v>
+        <v>0.1680334327247484</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02287680123542776</v>
+        <v>0.02079765032485423</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2010397907.122915</v>
+        <v>1782588450.190563</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1471911747446769</v>
+        <v>0.1023132552829674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0209216565059927</v>
+        <v>0.02801162344888673</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2345905575.018157</v>
+        <v>2064959116.460613</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0725914188553294</v>
+        <v>0.08339576738477061</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02869302469601482</v>
+        <v>0.03990207181611458</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2872517326.277718</v>
+        <v>3731829433.823422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1435369562561595</v>
+        <v>0.09135608132048416</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03969980692258779</v>
+        <v>0.05466059705285219</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>24</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1106505821.329717</v>
+        <v>1057607155.509292</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1694310088695234</v>
+        <v>0.1402023905825832</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04146767608650408</v>
+        <v>0.05221167210753314</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3326599517.979174</v>
+        <v>3688648567.860451</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1069998673400576</v>
+        <v>0.1490603146736784</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02601782345061766</v>
+        <v>0.02356471986917067</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1172638521.957323</v>
+        <v>1347671760.915149</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08899090421051233</v>
+        <v>0.1078649406114606</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02618729934182576</v>
+        <v>0.02060804521399032</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1234640871.781805</v>
+        <v>1412342062.536616</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1083258535135184</v>
+        <v>0.08092827988785549</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02613583868877173</v>
+        <v>0.0320829686081967</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3765719149.861207</v>
+        <v>4314153891.234313</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1335352259677273</v>
+        <v>0.1091923306851114</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01687195769484882</v>
+        <v>0.02250975890703668</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2771471835.627259</v>
+        <v>3122426978.404009</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1233149020840605</v>
+        <v>0.1232539104439024</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04650470892868863</v>
+        <v>0.04098891154385748</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23</v>
+      </c>
+      <c r="K28" t="n">
+        <v>125.6997853826165</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3656283512.739015</v>
+        <v>4033321552.697365</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1186077020335738</v>
+        <v>0.1132974705016665</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03305966708673397</v>
+        <v>0.03292792103994051</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22</v>
+      </c>
+      <c r="J29" t="n">
+        <v>24</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9038845443597</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2192674374.618361</v>
+        <v>1848658687.818633</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1162477897990634</v>
+        <v>0.1293264820571946</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02883024602663828</v>
+        <v>0.03296159713855433</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1480424156.12526</v>
+        <v>929228326.8530978</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1103151223202205</v>
+        <v>0.07615155367092505</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04201703920594906</v>
+        <v>0.03315431394753276</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1504734302.250955</v>
+        <v>1473257476.523751</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1084817114798808</v>
+        <v>0.1122049441810207</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0294643244273163</v>
+        <v>0.02593053330528521</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2159575581.653755</v>
+        <v>2660450448.552268</v>
       </c>
       <c r="F33" t="n">
-        <v>0.196673842693518</v>
+        <v>0.1747253746446171</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05613489278076433</v>
+        <v>0.05387680971830954</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1039843302.990303</v>
+        <v>963435312.0924255</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1191460611848703</v>
+        <v>0.07434438284788655</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02112942451170753</v>
+        <v>0.01786755145716663</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1322848127.687558</v>
+        <v>995801553.2562523</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09545379072771945</v>
+        <v>0.07967061405060985</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04201641100664337</v>
+        <v>0.03455854867562798</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2164366208.260768</v>
+        <v>2006221090.579735</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1657759852437861</v>
+        <v>0.1119550283017885</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01787035205792002</v>
+        <v>0.02828247285761401</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2817861676.72761</v>
+        <v>2255514253.354857</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07649751502961684</v>
+        <v>0.08678856040286421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02761687428102272</v>
+        <v>0.03872835924243101</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1761462422.191246</v>
+        <v>1372734686.989052</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1139828983020627</v>
+        <v>0.09883227741492867</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03509592095930686</v>
+        <v>0.03231440395445187</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1995778786.175792</v>
+        <v>2109428149.593781</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1465187265881062</v>
+        <v>0.1617909359721789</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02465930527104143</v>
+        <v>0.02076014209084168</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1661763610.232509</v>
+        <v>1659489825.585928</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1112102829344263</v>
+        <v>0.1134137643738182</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04693050214232515</v>
+        <v>0.05864115211092677</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1765085359.891362</v>
+        <v>2479190885.643684</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1617589359026511</v>
+        <v>0.1002044874218757</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03922176468559793</v>
+        <v>0.04695119064245764</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4169739649.579443</v>
+        <v>3006191830.02201</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0769423896029453</v>
+        <v>0.09554696959843284</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03799097120266096</v>
+        <v>0.03309896239507901</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>21</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1945499683.393607</v>
+        <v>2292900845.562397</v>
       </c>
       <c r="F43" t="n">
-        <v>0.164667107045407</v>
+        <v>0.1731539084262947</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0251031634823882</v>
+        <v>0.0258291045522724</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1684178117.8482</v>
+        <v>1622263283.166766</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07134428794357422</v>
+        <v>0.1022440007223085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02376275689748354</v>
+        <v>0.02987208021609003</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1859270459.24835</v>
+        <v>2345075512.791971</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1758674082558642</v>
+        <v>0.1846836980615772</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04540720407862324</v>
+        <v>0.04574485419970367</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5577581510.831344</v>
+        <v>5654776579.251647</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1192283691176806</v>
+        <v>0.1594718704510216</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05463371041935534</v>
+        <v>0.03818513897383104</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>24</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4468586798.931742</v>
+        <v>4259832219.281978</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1429533144905512</v>
+        <v>0.1595965715897775</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04931380841537559</v>
+        <v>0.05779310016263256</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>24</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4378611268.048006</v>
+        <v>3700650538.611008</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08954638657958294</v>
+        <v>0.07644244904326522</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0391786076436083</v>
+        <v>0.02606129827422745</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1835950246.196633</v>
+        <v>1742866228.907155</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1528304807111132</v>
+        <v>0.1954162406028762</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04460282125349942</v>
+        <v>0.0313929760822569</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2193,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3299304974.196194</v>
+        <v>3948838152.803447</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1495736159545112</v>
+        <v>0.1322905493326966</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03982033517484442</v>
+        <v>0.03523615183915494</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>23</v>
+      </c>
+      <c r="K50" t="n">
+        <v>204.2263815324978</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1506316420.555928</v>
+        <v>1493316069.20006</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1831588084343826</v>
+        <v>0.1519920829344686</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0420081390446801</v>
+        <v>0.05185470043093699</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3433277115.897324</v>
+        <v>3901422502.4462</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09840631913512468</v>
+        <v>0.08830629980743367</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03989960972563738</v>
+        <v>0.05352443929899797</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>17</v>
+      </c>
+      <c r="J52" t="n">
+        <v>24</v>
+      </c>
+      <c r="K52" t="n">
+        <v>215.6195383372037</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2395739428.880174</v>
+        <v>3094568588.916688</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1662856236465668</v>
+        <v>0.1298948515713893</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02788264593013205</v>
+        <v>0.02695082091186117</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3640439170.846</v>
+        <v>4339819623.823313</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1120167749326392</v>
+        <v>0.1196724870353725</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04891114943031947</v>
+        <v>0.04359183437355395</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3195445192.687807</v>
+        <v>4274442064.967803</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2229181912622762</v>
+        <v>0.1630425721969741</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03086570172347823</v>
+        <v>0.02849157335198538</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>23</v>
+      </c>
+      <c r="K55" t="n">
+        <v>184.6319271890876</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1581493058.489864</v>
+        <v>1656417070.147995</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1416999703476826</v>
+        <v>0.1407982716981295</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04549748290349305</v>
+        <v>0.03709267087667682</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4246248583.585477</v>
+        <v>3152647225.929746</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1375712947708897</v>
+        <v>0.1597988566737705</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02554515727584514</v>
+        <v>0.02305030431704116</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1792194893.780021</v>
+        <v>1161432454.415999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.195967878104229</v>
+        <v>0.1580003796774952</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03394183750069255</v>
+        <v>0.03868242935303232</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4383316389.427629</v>
+        <v>4912543641.113174</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09237469713197345</v>
+        <v>0.08630250350433417</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04011728903042876</v>
+        <v>0.04413464730812744</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>24</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3578850667.139169</v>
+        <v>3465804512.20381</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1626927205477731</v>
+        <v>0.1811660354631197</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02093712983862571</v>
+        <v>0.03054563703093617</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>21</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2835039125.909413</v>
+        <v>3175122654.030387</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1283578524881296</v>
+        <v>0.1745664318181489</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0215714526253487</v>
+        <v>0.02164115899662738</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1383781236.351724</v>
+        <v>1539839209.615069</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1690441466657644</v>
+        <v>0.134951476637076</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03510116710841486</v>
+        <v>0.04243639932650781</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2654,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3427321138.344255</v>
+        <v>4025658352.749049</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1008927623550879</v>
+        <v>0.09810443727937138</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03207851407922421</v>
+        <v>0.03798069945474404</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>24</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2689,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5350660217.25659</v>
+        <v>4558331640.696348</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1569316216882533</v>
+        <v>0.1828231255998899</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02831022827618086</v>
+        <v>0.02185231580045189</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>23</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.1254671374086</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3911399952.864502</v>
+        <v>5669716053.318334</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1412782176697255</v>
+        <v>0.1737600784441878</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02218303793523719</v>
+        <v>0.02520306074517998</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>19</v>
+      </c>
+      <c r="J65" t="n">
+        <v>24</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.3847492161233</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4125587015.277485</v>
+        <v>3986880475.341697</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1194032709022662</v>
+        <v>0.1222793949815055</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03169173418632344</v>
+        <v>0.04128602881555186</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>23</v>
+      </c>
+      <c r="K66" t="n">
+        <v>193.1407464736511</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2562598631.642242</v>
+        <v>3378738018.271704</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08779093443778863</v>
+        <v>0.0881066995184739</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04437120430821623</v>
+        <v>0.03395917839801649</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5472454643.972924</v>
+        <v>3975859708.076485</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1067418637819871</v>
+        <v>0.1370071878619912</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04772908803971927</v>
+        <v>0.04389219519018106</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>23</v>
+      </c>
+      <c r="K68" t="n">
+        <v>196.3690088933689</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2359790770.88915</v>
+        <v>1966881374.019917</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1605415098942445</v>
+        <v>0.1800502342256891</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0467409049640386</v>
+        <v>0.05169969169133582</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2825354486.270014</v>
+        <v>2507508892.90774</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09147611688827605</v>
+        <v>0.06919986977131104</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03378581602632985</v>
+        <v>0.03069159655613186</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3920961071.478421</v>
+        <v>3437081252.218992</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1741985290658666</v>
+        <v>0.1541256140885672</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02937838468364427</v>
+        <v>0.02925146631809178</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>23</v>
+      </c>
+      <c r="K71" t="n">
+        <v>157.1649002031541</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1746184195.991412</v>
+        <v>1723068527.765919</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09147139403694531</v>
+        <v>0.1074067293501642</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04972433631191423</v>
+        <v>0.0346573488695154</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2183403546.681323</v>
+        <v>2669587076.631508</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09013942112937968</v>
+        <v>0.08515197485339236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04060953517916304</v>
+        <v>0.04436479246594389</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4006554637.708724</v>
+        <v>3814247040.863909</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1827538323733569</v>
+        <v>0.1580153185234023</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02586128023620557</v>
+        <v>0.02258343174447361</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>24</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2243433188.433499</v>
+        <v>1761746174.282036</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1135143272873431</v>
+        <v>0.1211660299999097</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03338522648922626</v>
+        <v>0.03134192516151164</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3766723899.08331</v>
+        <v>4717545122.813831</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07606693993184611</v>
+        <v>0.08294685211483387</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02576024639377503</v>
+        <v>0.02972196829762998</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>23</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.6073126712321</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1392936867.622778</v>
+        <v>1759489923.10051</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1481939425285599</v>
+        <v>0.1629674272249507</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03036502878004418</v>
+        <v>0.03111886499431035</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3043428556.264908</v>
+        <v>3793340303.467888</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1277309180333678</v>
+        <v>0.09660821606736598</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04274822707126711</v>
+        <v>0.05028894108778384</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="n">
+        <v>23</v>
+      </c>
+      <c r="K78" t="n">
+        <v>189.1341454974343</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1730823173.772457</v>
+        <v>1293574223.026786</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1298740321982191</v>
+        <v>0.167317957697887</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04030242420712554</v>
+        <v>0.03634103852533425</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4402191161.614795</v>
+        <v>4466019057.354856</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07717363331845335</v>
+        <v>0.07854077396192102</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02992237057852229</v>
+        <v>0.03028167308334273</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>24</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5091406953.37013</v>
+        <v>4490604260.003061</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1309449173641336</v>
+        <v>0.1054598598620117</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02008329943568384</v>
+        <v>0.02815708615882368</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>23</v>
+      </c>
+      <c r="K81" t="n">
+        <v>170.9218235764874</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4528153319.473673</v>
+        <v>4132286786.690591</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1522564131013231</v>
+        <v>0.189161089430407</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01845001147779415</v>
+        <v>0.02907793355070773</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13</v>
+      </c>
+      <c r="J82" t="n">
+        <v>23</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.2353893293793</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2240428705.468594</v>
+        <v>1932301472.091625</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1265520075042814</v>
+        <v>0.1470419218423457</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03089728382413294</v>
+        <v>0.03622095995007216</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2151373640.404757</v>
+        <v>2202268452.991776</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09995392460865632</v>
+        <v>0.08746340893022297</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04215680898478509</v>
+        <v>0.05087984646483112</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3341670205.802096</v>
+        <v>3335119113.461902</v>
       </c>
       <c r="F85" t="n">
-        <v>0.150639092097745</v>
+        <v>0.181019861954461</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05210030576992478</v>
+        <v>0.05466388495210903</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2704750320.023712</v>
+        <v>2639324150.597033</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1696456710231838</v>
+        <v>0.1472030997694387</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01730360956320237</v>
+        <v>0.0197511875233483</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1127309335.275371</v>
+        <v>1014603634.003401</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1533605521644459</v>
+        <v>0.1183330706884316</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02919569250388763</v>
+        <v>0.03842610638592148</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3239015784.241262</v>
+        <v>2742649672.064948</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1533289882753451</v>
+        <v>0.1693460865965977</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02512830164399987</v>
+        <v>0.02898894253300939</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3331617981.593067</v>
+        <v>2669620192.511893</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1114746384157511</v>
+        <v>0.1023116748597724</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03155967263841632</v>
+        <v>0.03555977856980368</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2003275471.936066</v>
+        <v>2105502727.482352</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1165831701684425</v>
+        <v>0.1366428480851596</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03570720071909131</v>
+        <v>0.04683698420274898</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1612226466.500224</v>
+        <v>1416333508.701999</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1219644583008376</v>
+        <v>0.1578107092532983</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06022744406106753</v>
+        <v>0.05858565432147475</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2894111609.906919</v>
+        <v>2964704967.95524</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09492732915279975</v>
+        <v>0.07016035920763515</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04390529462209682</v>
+        <v>0.0290072391292003</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4468083347.039934</v>
+        <v>4409768885.534322</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1084051242331292</v>
+        <v>0.1293465109676679</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03448764288890736</v>
+        <v>0.04558963875847405</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>23</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.2857644045355</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2403641031.510262</v>
+        <v>2146607045.916035</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1644184451671343</v>
+        <v>0.1478793332439393</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03030804286204995</v>
+        <v>0.0260791824325309</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3170819199.301323</v>
+        <v>2712741453.34977</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1040404358553294</v>
+        <v>0.09664534324336765</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03298126718369058</v>
+        <v>0.05121955921382419</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1694483319.412124</v>
+        <v>1514754716.779703</v>
       </c>
       <c r="F96" t="n">
-        <v>0.111598775756218</v>
+        <v>0.1149272871221782</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03051436153847471</v>
+        <v>0.04551113511740815</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4923244184.046143</v>
+        <v>4338626141.827315</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1197866329166741</v>
+        <v>0.1581440023611245</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01974727751579999</v>
+        <v>0.01838110377438192</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2679082547.8058</v>
+        <v>2831783870.563031</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1231237451730833</v>
+        <v>0.1286562566931924</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02162685377594504</v>
+        <v>0.02833417863468067</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>21</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3123974859.511917</v>
+        <v>3434692157.761209</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1303648525825493</v>
+        <v>0.1265417836953999</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02249794293160314</v>
+        <v>0.02155291514550048</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3504640774.334883</v>
+        <v>4762346335.362517</v>
       </c>
       <c r="F100" t="n">
-        <v>0.172646335622245</v>
+        <v>0.157582377707095</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01706290491838679</v>
+        <v>0.02523937589853144</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>23</v>
+      </c>
+      <c r="K100" t="n">
+        <v>199.9127082232778</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3362660931.963417</v>
+        <v>2338498601.644811</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1845560163280212</v>
+        <v>0.2133593389324937</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04212096032848201</v>
+        <v>0.05599353156157654</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
